--- a/Assets/Resources/DataTables/NatrueCharts.xlsx
+++ b/Assets/Resources/DataTables/NatrueCharts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\game\unity\PokemonEvolution\Assets\Resources\DataTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6765D39F-B83D-49FD-8116-9DE35F34DFFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CAAD713-8527-4967-9E53-D319C76E539C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-3450" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="20" windowWidth="37260" windowHeight="20860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -176,14 +176,14 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="华文中宋"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF202122"/>
-      <name val="华文中宋"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -217,11 +217,11 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -505,7 +505,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A6" sqref="A1:A1048576"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -518,529 +518,530 @@
     <col min="6" max="6" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
+      <c r="B3" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
+      <c r="B5" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
+      <c r="B6" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="3" t="s">
+      <c r="B7" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="3" t="s">
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="3" t="s">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="3" t="s">
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="3" t="s">
+      <c r="B12" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="4" t="s">
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="5">
-        <v>1</v>
-      </c>
-      <c r="C14" s="5">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="3" t="s">
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="3" t="s">
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="2">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="3" t="s">
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="3" t="s">
+      <c r="B17" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="2">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="3" t="s">
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="2">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="3" t="s">
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="2">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="3" t="s">
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="3" t="s">
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="3" t="s">
+      <c r="B22" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="2">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="D23" s="2">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1</v>
-      </c>
-      <c r="F23" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="3" t="s">
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="2">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="E24" s="2">
-        <v>1</v>
-      </c>
-      <c r="F24" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="3" t="s">
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="2">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="F25" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="3" t="s">
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="2">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2">
-        <v>1</v>
-      </c>
-      <c r="E26" s="2">
-        <v>1</v>
-      </c>
-      <c r="F26" s="2">
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>